--- a/biology/Botanique/Jeanne_de_Chédigny/Jeanne_de_Chédigny.xlsx
+++ b/biology/Botanique/Jeanne_de_Chédigny/Jeanne_de_Chédigny.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jeanne_de_Ch%C3%A9digny</t>
+          <t>Jeanne_de_Chédigny</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 'Jeanne de Chédigny' (synonyme commercial Evegny) est un cultivar de rosier hybride moderne obtenu en 2010 par le rosiériste André Eve.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jeanne_de_Ch%C3%A9digny</t>
+          <t>Jeanne_de_Chédigny</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le rosier est remontant, à port buissonnant ; il peut atteindre 2 m de haut pour 1,20 m de large. La fleur simple à semi-double, rose pâle évoluant vers le blanc, est de petite taille (4 cm de diamètre à plein épanouissement), présentée en bouquets, au parfum léger[1],[2].
-Il supporte des températures de -20 °C[2].
-Le cultivar est issu en 2010 du croisement 'Paris 2000' x 'Rose des Blés'. Commercialisé en 2011, il est baptisé en hommage à Jeanne Louault (1912-2011), Juste parmi les nations habitant à Chédigny[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rosier est remontant, à port buissonnant ; il peut atteindre 2 m de haut pour 1,20 m de large. La fleur simple à semi-double, rose pâle évoluant vers le blanc, est de petite taille (4 cm de diamètre à plein épanouissement), présentée en bouquets, au parfum léger,.
+Il supporte des températures de -20 °C.
+Le cultivar est issu en 2010 du croisement 'Paris 2000' x 'Rose des Blés'. Commercialisé en 2011, il est baptisé en hommage à Jeanne Louault (1912-2011), Juste parmi les nations habitant à Chédigny.
 </t>
         </is>
       </c>
